--- a/Model/BayesLSTM/Univariate/result/Service/GBR.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/GBR.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>69.37254333496094</v>
+        <v>69.77956390380859</v>
       </c>
       <c r="C2" t="n">
-        <v>68.30397033691406</v>
+        <v>69.27538299560547</v>
       </c>
       <c r="D2" t="n">
-        <v>70.44111633300781</v>
+        <v>70.28374481201172</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>69.54898071289062</v>
+        <v>70.27487945556641</v>
       </c>
       <c r="C3" t="n">
-        <v>68.66748046875</v>
+        <v>69.48059844970703</v>
       </c>
       <c r="D3" t="n">
-        <v>70.43048095703125</v>
+        <v>71.06916046142578</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>69.29119110107422</v>
+        <v>70.10816955566406</v>
       </c>
       <c r="C4" t="n">
-        <v>68.30093383789062</v>
+        <v>69.32254791259766</v>
       </c>
       <c r="D4" t="n">
-        <v>70.28144836425781</v>
+        <v>70.89379119873047</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>69.17762756347656</v>
+        <v>69.88690948486328</v>
       </c>
       <c r="C5" t="n">
-        <v>68.26975250244141</v>
+        <v>68.93207550048828</v>
       </c>
       <c r="D5" t="n">
-        <v>70.08550262451172</v>
+        <v>70.84174346923828</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>69.3187255859375</v>
+        <v>69.71146392822266</v>
       </c>
       <c r="C6" t="n">
-        <v>68.33116912841797</v>
+        <v>68.61858367919922</v>
       </c>
       <c r="D6" t="n">
-        <v>70.30628204345703</v>
+        <v>70.80434417724609</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>69.61705017089844</v>
+        <v>70.01287841796875</v>
       </c>
       <c r="C7" t="n">
-        <v>68.94718933105469</v>
+        <v>69.37007904052734</v>
       </c>
       <c r="D7" t="n">
-        <v>70.28691101074219</v>
+        <v>70.65567779541016</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>69.67594146728516</v>
+        <v>69.65296936035156</v>
       </c>
       <c r="C8" t="n">
-        <v>68.84439849853516</v>
+        <v>69.03638458251953</v>
       </c>
       <c r="D8" t="n">
-        <v>70.50748443603516</v>
+        <v>70.26955413818359</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>69.68960571289062</v>
+        <v>69.42285919189453</v>
       </c>
       <c r="C9" t="n">
-        <v>68.80757141113281</v>
+        <v>68.71935272216797</v>
       </c>
       <c r="D9" t="n">
-        <v>70.57164001464844</v>
+        <v>70.12636566162109</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>69.57853698730469</v>
+        <v>69.50700378417969</v>
       </c>
       <c r="C10" t="n">
-        <v>68.92361450195312</v>
+        <v>68.63813781738281</v>
       </c>
       <c r="D10" t="n">
-        <v>70.23345947265625</v>
+        <v>70.37586975097656</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>69.58238220214844</v>
+        <v>69.51033782958984</v>
       </c>
       <c r="C11" t="n">
-        <v>68.75680541992188</v>
+        <v>68.72024536132812</v>
       </c>
       <c r="D11" t="n">
-        <v>70.407958984375</v>
+        <v>70.30043029785156</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>69.50627899169922</v>
+        <v>69.58258056640625</v>
       </c>
       <c r="C12" t="n">
-        <v>68.43954467773438</v>
+        <v>68.76773834228516</v>
       </c>
       <c r="D12" t="n">
-        <v>70.57301330566406</v>
+        <v>70.39742279052734</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>69.52241516113281</v>
+        <v>69.91140747070312</v>
       </c>
       <c r="C13" t="n">
-        <v>68.18350219726562</v>
+        <v>69.15660858154297</v>
       </c>
       <c r="D13" t="n">
-        <v>70.861328125</v>
+        <v>70.66620635986328</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>69.45506286621094</v>
+        <v>70.05867004394531</v>
       </c>
       <c r="C14" t="n">
-        <v>67.85163879394531</v>
+        <v>69.1568603515625</v>
       </c>
       <c r="D14" t="n">
-        <v>71.05848693847656</v>
+        <v>70.96047973632812</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56744384765625</v>
+        <v>70.05397796630859</v>
       </c>
       <c r="C15" t="n">
-        <v>68.27550506591797</v>
+        <v>68.99485778808594</v>
       </c>
       <c r="D15" t="n">
-        <v>70.85938262939453</v>
+        <v>71.11309814453125</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>69.43663024902344</v>
+        <v>69.87784576416016</v>
       </c>
       <c r="C16" t="n">
-        <v>68.27644348144531</v>
+        <v>68.74527740478516</v>
       </c>
       <c r="D16" t="n">
-        <v>70.59681701660156</v>
+        <v>71.01041412353516</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>69.31382751464844</v>
+        <v>69.89699554443359</v>
       </c>
       <c r="C17" t="n">
-        <v>68.26436614990234</v>
+        <v>68.88504791259766</v>
       </c>
       <c r="D17" t="n">
-        <v>70.36328887939453</v>
+        <v>70.90894317626953</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>69.33585357666016</v>
+        <v>69.98960113525391</v>
       </c>
       <c r="C18" t="n">
-        <v>68.32377624511719</v>
+        <v>69.20378112792969</v>
       </c>
       <c r="D18" t="n">
-        <v>70.34793090820312</v>
+        <v>70.77542114257812</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>69.20591735839844</v>
+        <v>69.98456573486328</v>
       </c>
       <c r="C19" t="n">
-        <v>67.77757263183594</v>
+        <v>69.09521484375</v>
       </c>
       <c r="D19" t="n">
-        <v>70.63426208496094</v>
+        <v>70.87391662597656</v>
       </c>
     </row>
     <row r="20">
@@ -715,83 +715,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>69.24186706542969</v>
+        <v>69.99934387207031</v>
       </c>
       <c r="C20" t="n">
-        <v>67.68453216552734</v>
+        <v>69.41683959960938</v>
       </c>
       <c r="D20" t="n">
-        <v>70.79920196533203</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B21" t="n">
-        <v>69.46253967285156</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68.48892974853516</v>
-      </c>
-      <c r="D21" t="n">
-        <v>70.43614959716797</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="n">
-        <v>69.49391937255859</v>
-      </c>
-      <c r="C22" t="n">
-        <v>68.23275756835938</v>
-      </c>
-      <c r="D22" t="n">
-        <v>70.75508117675781</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B23" t="n">
-        <v>69.33429718017578</v>
-      </c>
-      <c r="C23" t="n">
-        <v>67.91350555419922</v>
-      </c>
-      <c r="D23" t="n">
-        <v>70.75508880615234</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="n">
-        <v>69.36488342285156</v>
-      </c>
-      <c r="C24" t="n">
-        <v>68.05655670166016</v>
-      </c>
-      <c r="D24" t="n">
-        <v>70.67321014404297</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B25" t="n">
-        <v>69.32773590087891</v>
-      </c>
-      <c r="C25" t="n">
-        <v>67.77960205078125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>70.87586975097656</v>
+        <v>70.58184814453125</v>
       </c>
     </row>
   </sheetData>
@@ -837,72 +767,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>69.34487075805664</v>
+        <v>69.67585754394531</v>
       </c>
       <c r="C2" t="n">
-        <v>67.74458991680453</v>
+        <v>68.83316040039062</v>
       </c>
       <c r="D2" t="n">
-        <v>70.94515159930876</v>
+        <v>70.5185546875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>69.49511413574218</v>
+        <v>69.65119934082031</v>
       </c>
       <c r="C3" t="n">
-        <v>67.94509688178067</v>
+        <v>68.75937652587891</v>
       </c>
       <c r="D3" t="n">
-        <v>71.0451313897037</v>
+        <v>70.54302215576172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>70.02416305541992</v>
+        <v>69.68196105957031</v>
       </c>
       <c r="C4" t="n">
-        <v>69.18499614181445</v>
+        <v>68.78788757324219</v>
       </c>
       <c r="D4" t="n">
-        <v>70.86332996902539</v>
+        <v>70.57603454589844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>70.77508850097657</v>
+        <v>69.74655151367188</v>
       </c>
       <c r="C5" t="n">
-        <v>69.87493525854464</v>
+        <v>68.97475433349609</v>
       </c>
       <c r="D5" t="n">
-        <v>71.67524174340849</v>
+        <v>70.51834869384766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>69.51371383666992</v>
+        <v>69.75216674804688</v>
       </c>
       <c r="C6" t="n">
-        <v>68.67572030438039</v>
+        <v>68.96025085449219</v>
       </c>
       <c r="D6" t="n">
-        <v>70.35170736895945</v>
+        <v>70.54408264160156</v>
       </c>
     </row>
   </sheetData>
@@ -951,13 +881,13 @@
         <v>1998</v>
       </c>
       <c r="B2" t="n">
-        <v>70.11672973632812</v>
+        <v>69.72990417480469</v>
       </c>
       <c r="C2" t="n">
-        <v>69.30109405517578</v>
+        <v>68.82583618164062</v>
       </c>
       <c r="D2" t="n">
-        <v>70.93236541748047</v>
+        <v>70.63397216796875</v>
       </c>
     </row>
     <row r="3">
@@ -965,13 +895,13 @@
         <v>1999</v>
       </c>
       <c r="B3" t="n">
-        <v>69.95497894287109</v>
+        <v>69.55868530273438</v>
       </c>
       <c r="C3" t="n">
-        <v>69.14796447753906</v>
+        <v>68.44129180908203</v>
       </c>
       <c r="D3" t="n">
-        <v>70.76199340820312</v>
+        <v>70.67607879638672</v>
       </c>
     </row>
     <row r="4">
@@ -979,13 +909,13 @@
         <v>2000</v>
       </c>
       <c r="B4" t="n">
-        <v>70.03560638427734</v>
+        <v>69.51335906982422</v>
       </c>
       <c r="C4" t="n">
-        <v>68.55821228027344</v>
+        <v>68.52462005615234</v>
       </c>
       <c r="D4" t="n">
-        <v>71.51300048828125</v>
+        <v>70.50209808349609</v>
       </c>
     </row>
     <row r="5">
@@ -993,13 +923,13 @@
         <v>2001</v>
       </c>
       <c r="B5" t="n">
-        <v>69.59303283691406</v>
+        <v>69.49427795410156</v>
       </c>
       <c r="C5" t="n">
-        <v>68.52838897705078</v>
+        <v>68.18978881835938</v>
       </c>
       <c r="D5" t="n">
-        <v>70.65767669677734</v>
+        <v>70.79876708984375</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +937,13 @@
         <v>2002</v>
       </c>
       <c r="B6" t="n">
-        <v>69.69750213623047</v>
+        <v>69.57334899902344</v>
       </c>
       <c r="C6" t="n">
-        <v>69.24929046630859</v>
+        <v>68.59239196777344</v>
       </c>
       <c r="D6" t="n">
-        <v>70.14571380615234</v>
+        <v>70.55430603027344</v>
       </c>
     </row>
     <row r="7">
@@ -1021,13 +951,13 @@
         <v>2003</v>
       </c>
       <c r="B7" t="n">
-        <v>69.67827606201172</v>
+        <v>69.58476257324219</v>
       </c>
       <c r="C7" t="n">
-        <v>68.14942169189453</v>
+        <v>68.48815155029297</v>
       </c>
       <c r="D7" t="n">
-        <v>71.20713043212891</v>
+        <v>70.68137359619141</v>
       </c>
     </row>
     <row r="8">
@@ -1035,13 +965,13 @@
         <v>2004</v>
       </c>
       <c r="B8" t="n">
-        <v>69.77528381347656</v>
+        <v>69.66005706787109</v>
       </c>
       <c r="C8" t="n">
-        <v>68.23271942138672</v>
+        <v>68.80499267578125</v>
       </c>
       <c r="D8" t="n">
-        <v>71.31784820556641</v>
+        <v>70.51512145996094</v>
       </c>
     </row>
     <row r="9">
@@ -1049,13 +979,13 @@
         <v>2005</v>
       </c>
       <c r="B9" t="n">
-        <v>69.84784698486328</v>
+        <v>69.61246490478516</v>
       </c>
       <c r="C9" t="n">
-        <v>68.13178253173828</v>
+        <v>68.79586791992188</v>
       </c>
       <c r="D9" t="n">
-        <v>71.56391143798828</v>
+        <v>70.42906188964844</v>
       </c>
     </row>
     <row r="10">
@@ -1063,13 +993,13 @@
         <v>2006</v>
       </c>
       <c r="B10" t="n">
-        <v>69.74598693847656</v>
+        <v>69.54073333740234</v>
       </c>
       <c r="C10" t="n">
-        <v>68.51828765869141</v>
+        <v>68.642578125</v>
       </c>
       <c r="D10" t="n">
-        <v>70.97368621826172</v>
+        <v>70.43888854980469</v>
       </c>
     </row>
     <row r="11">
@@ -1077,13 +1007,13 @@
         <v>2007</v>
       </c>
       <c r="B11" t="n">
-        <v>69.75458526611328</v>
+        <v>69.59437561035156</v>
       </c>
       <c r="C11" t="n">
-        <v>68.41822052001953</v>
+        <v>68.71881866455078</v>
       </c>
       <c r="D11" t="n">
-        <v>71.09095001220703</v>
+        <v>70.46993255615234</v>
       </c>
     </row>
     <row r="12">
@@ -1091,13 +1021,13 @@
         <v>2008</v>
       </c>
       <c r="B12" t="n">
-        <v>69.72441864013672</v>
+        <v>69.72159576416016</v>
       </c>
       <c r="C12" t="n">
-        <v>68.35330963134766</v>
+        <v>68.93506622314453</v>
       </c>
       <c r="D12" t="n">
-        <v>71.09552764892578</v>
+        <v>70.50812530517578</v>
       </c>
     </row>
     <row r="13">
@@ -1105,13 +1035,13 @@
         <v>2009</v>
       </c>
       <c r="B13" t="n">
-        <v>69.49713134765625</v>
+        <v>69.70713806152344</v>
       </c>
       <c r="C13" t="n">
-        <v>68.48860931396484</v>
+        <v>69.32471466064453</v>
       </c>
       <c r="D13" t="n">
-        <v>70.50565338134766</v>
+        <v>70.08956146240234</v>
       </c>
     </row>
     <row r="14">
@@ -1119,13 +1049,13 @@
         <v>2010</v>
       </c>
       <c r="B14" t="n">
-        <v>69.64085388183594</v>
+        <v>69.57884216308594</v>
       </c>
       <c r="C14" t="n">
-        <v>68.34565734863281</v>
+        <v>68.60823822021484</v>
       </c>
       <c r="D14" t="n">
-        <v>70.93605041503906</v>
+        <v>70.54944610595703</v>
       </c>
     </row>
     <row r="15">
@@ -1133,13 +1063,13 @@
         <v>2011</v>
       </c>
       <c r="B15" t="n">
-        <v>69.73905181884766</v>
+        <v>69.46767425537109</v>
       </c>
       <c r="C15" t="n">
-        <v>68.85436248779297</v>
+        <v>68.36721801757812</v>
       </c>
       <c r="D15" t="n">
-        <v>70.62374114990234</v>
+        <v>70.56813049316406</v>
       </c>
     </row>
     <row r="16">
@@ -1147,13 +1077,13 @@
         <v>2012</v>
       </c>
       <c r="B16" t="n">
-        <v>69.60917663574219</v>
+        <v>69.51564025878906</v>
       </c>
       <c r="C16" t="n">
-        <v>68.61608123779297</v>
+        <v>68.57698059082031</v>
       </c>
       <c r="D16" t="n">
-        <v>70.60227203369141</v>
+        <v>70.45429992675781</v>
       </c>
     </row>
     <row r="17">
@@ -1161,13 +1091,13 @@
         <v>2013</v>
       </c>
       <c r="B17" t="n">
-        <v>69.82477569580078</v>
+        <v>69.60703277587891</v>
       </c>
       <c r="C17" t="n">
-        <v>68.66487884521484</v>
+        <v>68.48345947265625</v>
       </c>
       <c r="D17" t="n">
-        <v>70.98467254638672</v>
+        <v>70.73060607910156</v>
       </c>
     </row>
     <row r="18">
@@ -1175,13 +1105,13 @@
         <v>2014</v>
       </c>
       <c r="B18" t="n">
-        <v>69.80198669433594</v>
+        <v>69.73802947998047</v>
       </c>
       <c r="C18" t="n">
-        <v>68.36013031005859</v>
+        <v>68.37576293945312</v>
       </c>
       <c r="D18" t="n">
-        <v>71.24384307861328</v>
+        <v>71.10029602050781</v>
       </c>
     </row>
     <row r="19">
@@ -1189,13 +1119,13 @@
         <v>2015</v>
       </c>
       <c r="B19" t="n">
-        <v>69.87759399414062</v>
+        <v>69.68648529052734</v>
       </c>
       <c r="C19" t="n">
-        <v>68.38896179199219</v>
+        <v>68.39131164550781</v>
       </c>
       <c r="D19" t="n">
-        <v>71.36622619628906</v>
+        <v>70.98165893554688</v>
       </c>
     </row>
     <row r="20">
@@ -1203,13 +1133,13 @@
         <v>2016</v>
       </c>
       <c r="B20" t="n">
-        <v>69.83531188964844</v>
+        <v>69.57089996337891</v>
       </c>
       <c r="C20" t="n">
-        <v>68.32707977294922</v>
+        <v>68.36737060546875</v>
       </c>
       <c r="D20" t="n">
-        <v>71.34354400634766</v>
+        <v>70.77442932128906</v>
       </c>
     </row>
     <row r="21">
@@ -1217,13 +1147,13 @@
         <v>2017</v>
       </c>
       <c r="B21" t="n">
-        <v>69.96291351318359</v>
+        <v>69.74533081054688</v>
       </c>
       <c r="C21" t="n">
-        <v>68.78610992431641</v>
+        <v>69.06047821044922</v>
       </c>
       <c r="D21" t="n">
-        <v>71.13971710205078</v>
+        <v>70.43018341064453</v>
       </c>
     </row>
     <row r="22">
@@ -1231,13 +1161,13 @@
         <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>69.52683258056641</v>
+        <v>69.82492828369141</v>
       </c>
       <c r="C22" t="n">
-        <v>68.24592590332031</v>
+        <v>69.21657562255859</v>
       </c>
       <c r="D22" t="n">
-        <v>70.8077392578125</v>
+        <v>70.43328094482422</v>
       </c>
     </row>
     <row r="23">
@@ -1245,13 +1175,13 @@
         <v>2019</v>
       </c>
       <c r="B23" t="n">
-        <v>69.6876220703125</v>
+        <v>69.69230651855469</v>
       </c>
       <c r="C23" t="n">
-        <v>68.41417694091797</v>
+        <v>68.71682739257812</v>
       </c>
       <c r="D23" t="n">
-        <v>70.96106719970703</v>
+        <v>70.66778564453125</v>
       </c>
     </row>
     <row r="24">
@@ -1259,13 +1189,13 @@
         <v>2020</v>
       </c>
       <c r="B24" t="n">
-        <v>69.68961334228516</v>
+        <v>69.82708740234375</v>
       </c>
       <c r="C24" t="n">
-        <v>68.39185333251953</v>
+        <v>68.94214630126953</v>
       </c>
       <c r="D24" t="n">
-        <v>70.98737335205078</v>
+        <v>70.71202850341797</v>
       </c>
     </row>
     <row r="25">
@@ -1273,13 +1203,13 @@
         <v>2021</v>
       </c>
       <c r="B25" t="n">
-        <v>69.78282928466797</v>
+        <v>69.9454345703125</v>
       </c>
       <c r="C25" t="n">
-        <v>68.50491333007812</v>
+        <v>68.69026947021484</v>
       </c>
       <c r="D25" t="n">
-        <v>71.06074523925781</v>
+        <v>71.20059967041016</v>
       </c>
     </row>
   </sheetData>
@@ -1328,13 +1258,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>68.35261917114258</v>
+        <v>69.82220993041992</v>
       </c>
       <c r="C2" t="n">
-        <v>67.60661514915242</v>
+        <v>69.29407567146397</v>
       </c>
       <c r="D2" t="n">
-        <v>69.09862319313274</v>
+        <v>70.35034418937586</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1272,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>69.66132278442383</v>
+        <v>69.44741897583008</v>
       </c>
       <c r="C3" t="n">
-        <v>69.12794682403397</v>
+        <v>68.3666882938156</v>
       </c>
       <c r="D3" t="n">
-        <v>70.19469874481369</v>
+        <v>70.52814965784455</v>
       </c>
     </row>
     <row r="4">
@@ -1356,13 +1286,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>70.68677444458008</v>
+        <v>68.61910858154297</v>
       </c>
       <c r="C4" t="n">
-        <v>69.38726733754105</v>
+        <v>67.48361061902848</v>
       </c>
       <c r="D4" t="n">
-        <v>71.98628155161911</v>
+        <v>69.75460654405747</v>
       </c>
     </row>
     <row r="5">
@@ -1370,13 +1300,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>68.94119033813476</v>
+        <v>69.72029113769531</v>
       </c>
       <c r="C5" t="n">
-        <v>67.95288839335844</v>
+        <v>68.64531638515483</v>
       </c>
       <c r="D5" t="n">
-        <v>69.92949228291108</v>
+        <v>70.7952658902358</v>
       </c>
     </row>
     <row r="6">
@@ -1384,13 +1314,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>70.10848464965821</v>
+        <v>69.63833541870117</v>
       </c>
       <c r="C6" t="n">
-        <v>69.07253665884771</v>
+        <v>68.67688257073758</v>
       </c>
       <c r="D6" t="n">
-        <v>71.14443264046871</v>
+        <v>70.59978826666477</v>
       </c>
     </row>
   </sheetData>
